--- a/3.ehome/06-开发/ehomeWebAPP/提供测试接口列表.xlsx
+++ b/3.ehome/06-开发/ehomeWebAPP/提供测试接口列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
   <si>
     <t>提供接口列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我的首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我的收藏</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -317,6 +313,198 @@
   </si>
   <si>
     <t>开屏广告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.1. 判断有无添加手环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.2. 获取手环设备列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.3. 修改手环名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.4. 上传手环信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.5. 删除手环设备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.6. 提交运动数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.7. 获取运动数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.8. 提交运动目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.9. 获取运动统计信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.10. 提交睡眠数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.11. 获取睡眠数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.12. 获取睡眠统计信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.13. 判断手环模块是否开放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7.1. 我的订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7.2. 订单筛选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7.3. 商品购买订单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7.4. 预约服务类订单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7.5. 课程购买类订单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7.6. 场地预约类订单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7.7. 取消订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7.8. 订单状态跟踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7.9. 团购订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7.10. 申请退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7.11. 获取团购劵编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.9.1. 房间列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.9.2. 添加成员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.9.3. 删除成员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.1. 顶部广告位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.3. 最新公告展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2.1. 公告列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2.2. 公告详细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月2号跟张鹏张工确认要添加的接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优家首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优家公告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付成功通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝支付成功通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月3号跟张鹏张工确认要提供的接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访客邀请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.13.1. 访客列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.13.2. 添加访客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.13.3. 访客详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.13.4. 一键作废</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付预下单接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝预支付下单接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月4号跟张鹏张工确认要提供的接口（为了安全，改为服务器端提供）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,11 +564,26 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -493,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,18 +713,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,34 +725,79 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,13 +1104,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -882,25 +1118,25 @@
     <col min="5" max="5" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -917,11 +1153,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+    <row r="4" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -932,9 +1168,9 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
@@ -943,10 +1179,10 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -954,19 +1190,19 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -974,32 +1210,32 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+    <row r="11" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A11" s="11">
         <v>2</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1007,34 +1243,34 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+    <row r="13" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A13" s="11">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="12" t="s">
         <v>74</v>
       </c>
+      <c r="D13" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1042,357 +1278,715 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="13" t="s">
+    <row r="16" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
+    <row r="17" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A17" s="11">
         <v>4</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A21" s="11">
+        <v>5</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A25" s="11">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
-        <v>5</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="20" t="s">
+      <c r="D76" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="6" t="s">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="3" t="s">
+    <row r="78" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="6" t="s">
+    <row r="79" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="13" t="s">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="5" t="s">
+    <row r="81" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="5" t="s">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="2"/>
+      <c r="E82" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="32">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C44:C56"/>
+    <mergeCell ref="C57:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="A25:A82"/>
+    <mergeCell ref="B25:B82"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C77:C78"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="B4:B10"/>
@@ -1402,18 +1996,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A18:A49"/>
-    <mergeCell ref="B18:B49"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
